--- a/biology/Botanique/Mabea_piriri/Mabea_piriri.xlsx
+++ b/biology/Botanique/Mabea_piriri/Mabea_piriri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mabea piriri est une espèce de plantes à fleurs de la famille des Euphorbiaceae (famille du ricin). C'est un arbuste sud-américain.
-Il est connu en Guyane sous les noms de Bois-lait ou Bois-lélé (créole de Saül)[3] ou Bois à calumet[4]. Au Suriname on le désigne sous les noms de Bakaa Poeirenga (Saramaka), Baririe Koli Kakkekoro (Arawak), Koenbotassi, Wepenjana atakarie, Pakjira emoeroc, Wepe lana noc takalli (Karib)[5]. Au Guyana, on l'appelle Swizzle stick (Créole), Bariri-kuti (signifie "pied de faucon" en Arawak à cause de ses branches verticillées), Yukuyapoi (Karib)[6]. Au Venezuela, on l'appelle Molenillo, Pata de gallina, Pata de grulla, Pata de paují, Usibe (espagnol)[7].
+Il est connu en Guyane sous les noms de Bois-lait ou Bois-lélé (créole de Saül) ou Bois à calumet. Au Suriname on le désigne sous les noms de Bakaa Poeirenga (Saramaka), Baririe Koli Kakkekoro (Arawak), Koenbotassi, Wepenjana atakarie, Pakjira emoeroc, Wepe lana noc takalli (Karib). Au Guyana, on l'appelle Swizzle stick (Créole), Bariri-kuti (signifie "pied de faucon" en Arawak à cause de ses branches verticillées), Yukuyapoi (Karib). Au Venezuela, on l'appelle Molenillo, Pata de gallina, Pata de grulla, Pata de paují, Usibe (espagnol).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mabea piriri est un arbre pouvant atteindre 15(–25) m de haut, produisant un latex blanc en cas de blessure. Son troncs produit des contreforts arrondis très bas. Ses branches sont parfois verticillées. Son écorce brun pâle est lisse avec quelques fissures verticales. L'écorce interne est brun-orangé. Les tiges sont glabres à glabrescentes. Les pétiole des feuilles est long de 7-11 mm. Les feuilles glabres, ont des marges dentelées à sub-entière, sont étroitement oblongues-elliptiques, ont base aiguë, un apex acuminé à caudé, et mesurent 7-13 x 2,5-4,5 cm. Elles portent de petites glandes circulaires le long de la marge abaxiale. Les inflorescences sont terminales et à l'aisselle, des feuilles supérieures, sont parfois ramifiées (1 à 3(5) à l'extrémité d'un rameau). Les unités racémeuses mesurent 6-8 x (2)2,5-3,5 cm, sont vert pâle, comportent 2-4 fleurs pistillées chacune et sont portées sur un pédoncule long de 2,5 −9 cm. Les bractées des fleurs staminées portent des glandes vert foncé, longues d'environ 3 cm, et insérées 1,5 à 1 mm au-dessus du rachis. Les pédicelles sont longs de 6-9-(-12) cm sur les fleurs staminées, et 10-15 mm sur les fleurs pistillés. Les fleurs staminées mesurent 1,5-2 mm de diamètre est comportent 15-25 étamines. Sur les fleurs pistillées, l'ovaires est densément couvert de poils dendritiques. Le style, long de 2 à 2,6 cm est conné sur la moitié de sa longueur. Le fruit est une capsules de 1,5-2 cm de diamètre, recouvertes de poils brun rougeâtre[3]. Les ovaires et fruits sont toujours bruns[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mabea piriri est un arbre pouvant atteindre 15(–25) m de haut, produisant un latex blanc en cas de blessure. Son troncs produit des contreforts arrondis très bas. Ses branches sont parfois verticillées. Son écorce brun pâle est lisse avec quelques fissures verticales. L'écorce interne est brun-orangé. Les tiges sont glabres à glabrescentes. Les pétiole des feuilles est long de 7-11 mm. Les feuilles glabres, ont des marges dentelées à sub-entière, sont étroitement oblongues-elliptiques, ont base aiguë, un apex acuminé à caudé, et mesurent 7-13 x 2,5-4,5 cm. Elles portent de petites glandes circulaires le long de la marge abaxiale. Les inflorescences sont terminales et à l'aisselle, des feuilles supérieures, sont parfois ramifiées (1 à 3(5) à l'extrémité d'un rameau). Les unités racémeuses mesurent 6-8 x (2)2,5-3,5 cm, sont vert pâle, comportent 2-4 fleurs pistillées chacune et sont portées sur un pédoncule long de 2,5 −9 cm. Les bractées des fleurs staminées portent des glandes vert foncé, longues d'environ 3 cm, et insérées 1,5 à 1 mm au-dessus du rachis. Les pédicelles sont longs de 6-9-(-12) cm sur les fleurs staminées, et 10-15 mm sur les fleurs pistillés. Les fleurs staminées mesurent 1,5-2 mm de diamètre est comportent 15-25 étamines. Sur les fleurs pistillées, l'ovaires est densément couvert de poils dendritiques. Le style, long de 2 à 2,6 cm est conné sur la moitié de sa longueur. Le fruit est une capsules de 1,5-2 cm de diamètre, recouvertes de poils brun rougeâtre. Les ovaires et fruits sont toujours bruns.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Mabea piriri du Venezuela, à la forêt côtière atlantique du Brésil en passant par les Guyanes (Guyana, Suriname, Guyane), et le bassin amazonien[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Mabea piriri du Venezuela, à la forêt côtière atlantique du Brésil en passant par les Guyanes (Guyana, Suriname, Guyane), et le bassin amazonien.
 </t>
         </is>
       </c>
@@ -574,11 +590,13 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il pousse depuis le niveau de la mer jusqu'à 900 m d'altitude, dans les forêts tropicales sempervirentes des basses terres, jusqu'aux premiers reliefs montagnards, et parfois sur les berges des cours d'eau ou les forêts secondaires[7]. Il préfère le sous-bois des forêts de terre ferme non inondées. En Guyane, il fleurit de septembre à novembre, fructifie de décembre à février[3].
-Mabea piriri a la particularité de ne pas connaître de dédifférenciation végétative lors du passage au stade sexuel[8].
-Au Venezuela, Mabea piriri est une des espèces les plus communément consommées par le tapir, et aussi une des plus communes dans son habitat naturel[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il pousse depuis le niveau de la mer jusqu'à 900 m d'altitude, dans les forêts tropicales sempervirentes des basses terres, jusqu'aux premiers reliefs montagnards, et parfois sur les berges des cours d'eau ou les forêts secondaires. Il préfère le sous-bois des forêts de terre ferme non inondées. En Guyane, il fleurit de septembre à novembre, fructifie de décembre à février.
+Mabea piriri a la particularité de ne pas connaître de dédifférenciation végétative lors du passage au stade sexuel.
+Au Venezuela, Mabea piriri est une des espèces les plus communément consommées par le tapir, et aussi une des plus communes dans son habitat naturel.
 </t>
         </is>
       </c>
@@ -607,13 +625,15 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bois de Mabea piriri est utilisé pour la construction[7].
-Les tiges creuses de Mabea piriri étaient employées sous l'ancien régime pour réaliser des tuyaux et embouts de pipe, d'où le nom de « Bois à calumet »[10],[11],[4].
-Dans le Nord-ouest du Guyana, les populations amérindiennes emploient Mabea piriri comme plante médicinale, ressource technologique et matériau construction d'importance mineure : le latex est sert de collyre pour soigner les yeux endoloris. La tige verticillée est taillée en un ustensile de cuisine pour battre le lait au chocolat ou la purée de banane. Son bois considéré comme durable est utilisé en "bois rond" dans la construction de maisons[6].
-Le latex de Mabea piriri est riche en caoutchouc[12]. Son écorce, amère et astringente aurait des propriétés fébrifuges[13].
-L'extrait alcoolique de Mabea piriri présente des propriétés acaricides sur la tique Dermacentor nitens comparables à la deltaméthrine[14].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bois de Mabea piriri est utilisé pour la construction.
+Les tiges creuses de Mabea piriri étaient employées sous l'ancien régime pour réaliser des tuyaux et embouts de pipe, d'où le nom de « Bois à calumet ».
+Dans le Nord-ouest du Guyana, les populations amérindiennes emploient Mabea piriri comme plante médicinale, ressource technologique et matériau construction d'importance mineure : le latex est sert de collyre pour soigner les yeux endoloris. La tige verticillée est taillée en un ustensile de cuisine pour battre le lait au chocolat ou la purée de banane. Son bois considéré comme durable est utilisé en "bois rond" dans la construction de maisons.
+Le latex de Mabea piriri est riche en caoutchouc. Son écorce, amère et astringente aurait des propriétés fébrifuges.
+L'extrait alcoolique de Mabea piriri présente des propriétés acaricides sur la tique Dermacentor nitens comparables à la deltaméthrine.
 </t>
         </is>
       </c>
@@ -642,9 +662,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante[4] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante : 
 « MABEA (Piriri) foliis ovato - oblongis, acuminatis. (Tabula 334. Fig. 1.) 
 Frutex trunco quinque-pedali ; ramos plures, ſarmentoſos, longiſſimos, ſuprà arbores ſparſos, &amp; propendentes emittente. Folia alterna, ovato-oblonga, in acumen longum deſinentia, integerrima, ſuperne viridia, inferne albicantia, brevi petiolata. Stipulæ binæ, breves, anguſtæ, acutæ, deciduæ. Flores paniculati, denſiſſimi, maſculi terni, pedunculati, ab codem pedicello exeunt, ad baſim glandulis duabus &amp; bradea muniuntur. Flores feminei infra maſculos, ſolitarii, pedunculati. 
 Tota planta vulnerata ladeum ſuccum fundit. 
